--- a/students.csv.xlsx
+++ b/students.csv.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8811"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10390" windowHeight="3690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>F</t>
   </si>
@@ -66,6 +66,135 @@
   </si>
   <si>
     <t>2019-0001</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Al-Sulaimani, Hassan H.</t>
+  </si>
+  <si>
+    <t>BS Chemistry</t>
+  </si>
+  <si>
+    <t>Para, Hania S.</t>
+  </si>
+  <si>
+    <t>BS Communication</t>
+  </si>
+  <si>
+    <t>Ismael, Jivryl J.</t>
+  </si>
+  <si>
+    <t>BS Architecture</t>
+  </si>
+  <si>
+    <t>2019-0002</t>
+  </si>
+  <si>
+    <t>2019-0003</t>
+  </si>
+  <si>
+    <t>2019-0004</t>
+  </si>
+  <si>
+    <t>2019-0005</t>
+  </si>
+  <si>
+    <t>Mampao, Raihanie</t>
+  </si>
+  <si>
+    <t>BS Computer Science</t>
+  </si>
+  <si>
+    <t>2019-0006</t>
+  </si>
+  <si>
+    <t>Arcaina, Maureen</t>
+  </si>
+  <si>
+    <t>BS Marketing</t>
+  </si>
+  <si>
+    <t>Cuajotor, Jonathan</t>
+  </si>
+  <si>
+    <t>BS Economics</t>
+  </si>
+  <si>
+    <t>2018-0007</t>
+  </si>
+  <si>
+    <t>2018-0008</t>
+  </si>
+  <si>
+    <t>Mabayo, Giniesy</t>
+  </si>
+  <si>
+    <t>BS Physics</t>
+  </si>
+  <si>
+    <t>2018-0009</t>
+  </si>
+  <si>
+    <t>BS Pharmacy</t>
+  </si>
+  <si>
+    <t>2018-0010</t>
+  </si>
+  <si>
+    <t>Mampao, Hamie</t>
+  </si>
+  <si>
+    <t>BS Information Technology</t>
+  </si>
+  <si>
+    <t>2018-0011</t>
+  </si>
+  <si>
+    <t>Pangarungan, Alia S.</t>
+  </si>
+  <si>
+    <t>Bagul, Salma L.</t>
+  </si>
+  <si>
+    <t>BS Psychology</t>
+  </si>
+  <si>
+    <t>2019-0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saadi, Waleed S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>1st Year</t>
+  </si>
+  <si>
+    <t>3rd Year</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>6th Year</t>
+  </si>
+  <si>
+    <t>2nd Year</t>
   </si>
 </sst>
 </file>
@@ -383,47 +512,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" customWidth="1"/>
-    <col min="2" max="2" width="20.921875" customWidth="1"/>
-    <col min="3" max="3" width="5.3046875" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" customWidth="1"/>
-    <col min="5" max="5" width="15.15234375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -432,15 +561,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -449,37 +578,241 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
     </row>
